--- a/medicine/Hématologie/Teneur_corpusculaire_moyenne_en_hémoglobine/Teneur_corpusculaire_moyenne_en_hémoglobine.xlsx
+++ b/medicine/Hématologie/Teneur_corpusculaire_moyenne_en_hémoglobine/Teneur_corpusculaire_moyenne_en_hémoglobine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teneur_corpusculaire_moyenne_en_h%C3%A9moglobine</t>
+          <t>Teneur_corpusculaire_moyenne_en_hémoglobine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La teneur corpusculaire moyenne en hémoglobine (TCMH), aussi parfois appelée teneur globulaire moyenne en hémoglobine (TGMH), est un paramètre sanguin donnant la masse moyenne d'hémoglobine contenue dans un globule rouge. Elle est calculée lors d'un hémogramme comme le rapport entre le taux d'hémoglobine et la numération globulaire. La TCMH est exprimée en picogrammes.
                    taux d'hémoglobine (g/100 ml) x 10       
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Teneur_corpusculaire_moyenne_en_h%C3%A9moglobine</t>
+          <t>Teneur_corpusculaire_moyenne_en_hémoglobine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Valeurs usuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La valeur de référence chez l'adulte se situe entre 27 et 38 picogrammes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valeur de référence chez l'adulte se situe entre 27 et 38 picogrammes.
 Cette valeur varie avec l'âge : elle est plus élevée chez le nouveau-né, elle diminue par la suite. Elle suit le même mouvement que le volume globulaire moyen (VGM).
-La valeur de TCMH reflétant la quantité d'hémoglobine contenue en moyenne par globule rouge, dont le volume peut lui-même varier, il faut prendre en compte ces deux variables et considérer la CCMH (concentration corpusculaire moyenne en hémoglobine) pour définir la normochromie (CCMH de 32 à 35 %) et l'hypochromie (CCMH &lt; 32 %)[2].
+La valeur de TCMH reflétant la quantité d'hémoglobine contenue en moyenne par globule rouge, dont le volume peut lui-même varier, il faut prendre en compte ces deux variables et considérer la CCMH (concentration corpusculaire moyenne en hémoglobine) pour définir la normochromie (CCMH de 32 à 35 %) et l'hypochromie (CCMH &lt; 32 %).
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Teneur_corpusculaire_moyenne_en_h%C3%A9moglobine</t>
+          <t>Teneur_corpusculaire_moyenne_en_hémoglobine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
